--- a/parameterizedtestngdemo/customerdata.xlsx
+++ b/parameterizedtestngdemo/customerdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\repository\amexseleniumrepo\parameterizedtestngdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A5B6C-D657-4F05-B3DB-DC32F7509513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DE7B18-D5B2-4029-85A7-A1A6DB0F0EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>vigneshbala</t>
+  </si>
+  <si>
+    <t>9952032862</t>
+  </si>
+  <si>
+    <t>600049</t>
   </si>
 </sst>
 </file>
@@ -126,9 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,19 +421,20 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.109375" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="10" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.5546875" customWidth="1"/>
     <col min="11" max="11" width="17.21875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
@@ -437,7 +446,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -452,7 +461,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I1" t="s">
@@ -475,8 +484,8 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>9952032862</v>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -490,8 +499,8 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>600049</v>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -511,5 +520,6 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AD820DE9-F5B9-451D-92BC-C3A86010070A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/parameterizedtestngdemo/customerdata.xlsx
+++ b/parameterizedtestngdemo/customerdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\repository\amexseleniumrepo\parameterizedtestngdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DE7B18-D5B2-4029-85A7-A1A6DB0F0EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24FA45D-ADFD-4DE1-B60A-3330280F1612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -69,25 +69,34 @@
     <t>Bala</t>
   </si>
   <si>
-    <t>eswaribala70@gmail.com</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>eswaribala</t>
-  </si>
-  <si>
     <t>vigneshbala</t>
   </si>
   <si>
-    <t>9952032862</t>
-  </si>
-  <si>
     <t>600049</t>
+  </si>
+  <si>
+    <t>9952032865</t>
+  </si>
+  <si>
+    <t>9952032866</t>
+  </si>
+  <si>
+    <t>eswaribala73@gmail.com</t>
+  </si>
+  <si>
+    <t>eswaribala74@gmail.com</t>
+  </si>
+  <si>
+    <t>eswaribala73</t>
+  </si>
+  <si>
+    <t>eswaribala74</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,38 +497,77 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AD820DE9-F5B9-451D-92BC-C3A86010070A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0DEA620E-3347-40F6-AEE4-73E740D143E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>